--- a/UC_6/planilha/Doc_testes.xlsx
+++ b/UC_6/planilha/Doc_testes.xlsx
@@ -942,7 +942,7 @@
   <dimension ref="A2:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,6 +1002,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
+      <c r="L6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
